--- a/biology/Mycologie/Suillus_lakei/Suillus_lakei.xlsx
+++ b/biology/Mycologie/Suillus_lakei/Suillus_lakei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet de Lake
 Suillus lakei, le Bolet de Lake, est une espèce de champignons basidiomycètes de la famille des Suillaceae (après avoir été classée dans celle des Boletaceae). Il est caractérisé par son chapeau couvert de mèches brunes, sa marge parfois blanche pendante et son habitat sous Sapin de Douglas.
@@ -512,19 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Suillus lakei (Murrill) A.H. Sm. &amp; Thiers, 1964[1].
-Basionyme
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus lakei Murrill, 1912[1].
-Synonymes
-Suillus lakei a pour synonymes[1] :
-Boletinus lakei (Murrill) Singer, 1945
-Boletinus tridentinus subsp. landkammeri Pilát &amp; Svrcek, 1949
-Boletus lakei Murrill, 1912
-Ixocomus lakei (Murrill) Singer, 1940
-Publication originale
-A.H. Smith, H.D. Thiers, A contribution toward a monograph of North American species of Suillus (Boletaceae), 1964, p. 1-116</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus lakei (Murrill) A.H. Sm. &amp; Thiers, 1964.
+</t>
         </is>
       </c>
     </row>
@@ -549,10 +554,125 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Basionyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus lakei Murrill, 1912.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Suillus_lakei</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_lakei</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Suillus lakei a pour synonymes :
+Boletinus lakei (Murrill) Singer, 1945
+Boletinus tridentinus subsp. landkammeri Pilát &amp; Svrcek, 1949
+Boletus lakei Murrill, 1912
+Ixocomus lakei (Murrill) Singer, 1940</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus_lakei</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_lakei</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A.H. Smith, H.D. Thiers, A contribution toward a monograph of North American species of Suillus (Boletaceae), 1964, p. 1-116</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suillus_lakei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_lakei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuticule : méchuleux ou de petites écaille.
 Hymenophore : chapeau avec des diamètres de jusqu'à 15 cm, rouge-brun fibres  avec une légère dépression centrale.
